--- a/hypatia/examples/Operation_teaching_2Regions/sets/reg1.xlsx
+++ b/hypatia/examples/Operation_teaching_2Regions/sets/reg1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{F2F3594B-D1C4-4923-ACEB-B88C234050CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B4CA3CF-32DE-4CA4-B734-9802D79E4655}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{F2F3594B-D1C4-4923-ACEB-B88C234050CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57FCCE48-9250-4A60-8462-2060BA76B09F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Technology</t>
   </si>
@@ -89,15 +89,6 @@
     <t>Electricity_demand</t>
   </si>
   <si>
-    <t>Oil_supply</t>
-  </si>
-  <si>
-    <t>HFO_PP</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
     <t>Electricity Demand</t>
   </si>
   <si>
@@ -107,13 +98,13 @@
     <t>OCGT_PP</t>
   </si>
   <si>
-    <t>Hydro_PP</t>
-  </si>
-  <si>
     <t>Elec_distribution</t>
   </si>
   <si>
     <t>Natural_gas</t>
+  </si>
+  <si>
+    <t>PV_PP</t>
   </si>
 </sst>
 </file>
@@ -333,61 +324,61 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -648,8 +639,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Technologies" displayName="Technologies" ref="A1:C9" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="A1:C9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Technologies" displayName="Technologies" ref="A1:C7" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Technology" totalsRowLabel="Totale" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tech_name" dataDxfId="20"/>
@@ -660,8 +651,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Carriers" displayName="Carriers" ref="A11:C15" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A11:C15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Carriers" displayName="Carriers" ref="A9:C12" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A9:C12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Carrier" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Carr_name" dataDxfId="13"/>
@@ -672,22 +663,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Carrier_input" displayName="Carrier_input" ref="A17:B21" totalsRowShown="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A17:B21" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Carrier_input" displayName="Carrier_input" ref="A14:B17" totalsRowShown="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A14:B17" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Technology" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Carrier_in" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Technology" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Carrier_in" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Carrier_output" displayName="Carrier_output" ref="A23:B30" totalsRowShown="0" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A23:B30" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Carrier_output" displayName="Carrier_output" ref="A19:B24" totalsRowShown="0" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A19:B24" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Technology" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Carrier_out" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Technology" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Carrier_out" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,21 +976,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -1007,240 +998,183 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>10</v>
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
+      <c r="A24" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1257,6 +1191,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e67e9a88-35e1-4b39-8da9-a609eb308282" xsi:nil="true"/>
+    <MediaLengthInSeconds xmlns="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e" xsi:nil="true"/>
+    <SharedWithUsers xmlns="e67e9a88-35e1-4b39-8da9-a609eb308282">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100241E96938535DD4B921FCDFB54345D30" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ea9f1ad5a580c8ec0c54747f8c275290">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e" xmlns:ns3="e67e9a88-35e1-4b39-8da9-a609eb308282" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a21d2b210d3c14c0eb20b1c12c2a17c" ns2:_="" ns3:_="">
     <xsd:import namespace="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e"/>
@@ -1499,49 +1461,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e67e9a88-35e1-4b39-8da9-a609eb308282" xsi:nil="true"/>
-    <MediaLengthInSeconds xmlns="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e" xsi:nil="true"/>
-    <SharedWithUsers xmlns="e67e9a88-35e1-4b39-8da9-a609eb308282">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2E3FF75-FF0E-4BF7-8470-9814D1CD7FBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02FFCCC0-D151-4131-8674-9150006F5645}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e"/>
-    <ds:schemaRef ds:uri="e67e9a88-35e1-4b39-8da9-a609eb308282"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1564,9 +1487,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02FFCCC0-D151-4131-8674-9150006F5645}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2E3FF75-FF0E-4BF7-8470-9814D1CD7FBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e"/>
+    <ds:schemaRef ds:uri="e67e9a88-35e1-4b39-8da9-a609eb308282"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/hypatia/examples/Operation_teaching_2Regions/sets/reg1.xlsx
+++ b/hypatia/examples/Operation_teaching_2Regions/sets/reg1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{F2F3594B-D1C4-4923-ACEB-B88C234050CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57FCCE48-9250-4A60-8462-2060BA76B09F}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{F2F3594B-D1C4-4923-ACEB-B88C234050CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD4EB781-2EDF-4F8C-9AA0-B55707581DFB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -950,7 +950,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1191,15 +1191,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e">
@@ -1216,6 +1207,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1462,14 +1462,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02FFCCC0-D151-4131-8674-9150006F5645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47459BDD-D3FC-481C-A541-18894CC134C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1482,6 +1474,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02FFCCC0-D151-4131-8674-9150006F5645}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
